--- a/data/Rating History/Clean CRISIL Mapping.xlsx
+++ b/data/Rating History/Clean CRISIL Mapping.xlsx
@@ -12,8 +12,8 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$428</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="0">Sheet1!$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C:$C</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="0">Sheet1!$H$1</definedName>
     <definedName name="numericmap">Sheet1!$G$2:$H$21</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="449">
   <si>
     <t>CRISIL_x000D_A+(SO)</t>
   </si>
@@ -1706,10 +1706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C428"/>
+  <dimension ref="A1:H428"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H21"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1717,7 +1717,7 @@
     <col min="7" max="7" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>434</v>
       </c>
@@ -1727,8 +1727,14 @@
       <c r="C1" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1738,8 +1744,14 @@
       <c r="C2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>411</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1749,8 +1761,14 @@
       <c r="C3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1760,8 +1778,14 @@
       <c r="C4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1771,8 +1795,14 @@
       <c r="C5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1782,8 +1812,14 @@
       <c r="C6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>438</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1793,8 +1829,14 @@
       <c r="C7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1804,8 +1846,14 @@
       <c r="C8">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>436</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1815,8 +1863,14 @@
       <c r="C9">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>437</v>
+      </c>
+      <c r="H9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1826,8 +1880,14 @@
       <c r="C10">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>442</v>
+      </c>
+      <c r="H10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1837,8 +1897,14 @@
       <c r="C11">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>171</v>
+      </c>
+      <c r="H11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1848,8 +1914,14 @@
       <c r="C12">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>441</v>
+      </c>
+      <c r="H12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1859,8 +1931,14 @@
       <c r="C13">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>157</v>
+      </c>
+      <c r="H13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1870,8 +1948,14 @@
       <c r="C14">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>445</v>
+      </c>
+      <c r="H14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1881,8 +1965,14 @@
       <c r="C15">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>440</v>
+      </c>
+      <c r="H15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1892,8 +1982,14 @@
       <c r="C16">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>444</v>
+      </c>
+      <c r="H16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1903,8 +1999,14 @@
       <c r="C17">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>443</v>
+      </c>
+      <c r="H17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1914,8 +2016,14 @@
       <c r="C18">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>439</v>
+      </c>
+      <c r="H18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1925,8 +2033,14 @@
       <c r="C19">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>446</v>
+      </c>
+      <c r="H19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1936,8 +2050,14 @@
       <c r="C20">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>447</v>
+      </c>
+      <c r="H20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1948,7 +2068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1959,7 +2079,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1970,7 +2090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1981,7 +2101,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1992,7 +2112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -2003,7 +2123,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2014,7 +2134,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2025,7 +2145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -2036,7 +2156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -2047,7 +2167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -2058,7 +2178,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -6426,6 +6546,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="G2:H20">
+    <sortCondition ref="H2:H20"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
